--- a/Examples/Data/Production_v.xlsx
+++ b/Examples/Data/Production_v.xlsx
@@ -410,7 +410,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -692,7 +694,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
